--- a/test.xlsx
+++ b/test.xlsx
@@ -1173,8 +1173,8 @@
   <sheetPr/>
   <dimension ref="A1:CR273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -79775,584 +79775,200 @@
       </c>
     </row>
     <row r="272" spans="1:96">
-      <c r="A272" s="1">
-        <v>0</v>
-      </c>
-      <c r="B272" s="1">
-        <v>0.536245307853556</v>
-      </c>
-      <c r="C272" s="1">
-        <v>0.601995202791103</v>
-      </c>
-      <c r="D272" s="1">
-        <v>0.596445205846137</v>
-      </c>
-      <c r="E272" s="1">
-        <v>0.605370501160293</v>
-      </c>
-      <c r="F272" s="1">
-        <v>0.605392121535335</v>
-      </c>
-      <c r="G272" s="1">
-        <v>0.999056210258976</v>
-      </c>
-      <c r="H272" s="1">
-        <v>0.797476199560548</v>
-      </c>
-      <c r="I272" s="1">
-        <v>0.80939824348154</v>
-      </c>
-      <c r="J272" s="1">
-        <v>0.303493588573829</v>
-      </c>
-      <c r="K272" s="1">
-        <v>0.781660220334592</v>
-      </c>
-      <c r="L272" s="1">
-        <v>0.000101760114637395</v>
-      </c>
-      <c r="M272" s="1">
-        <v>8230000000</v>
-      </c>
-      <c r="N272" s="1">
-        <v>0.463861838739169</v>
-      </c>
-      <c r="O272" s="1">
-        <v>0.000191019101910191</v>
-      </c>
-      <c r="P272" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q272" s="1">
-        <v>0.187771269647297</v>
-      </c>
-      <c r="R272" s="1">
-        <v>0.187771269647297</v>
-      </c>
-      <c r="S272" s="1">
-        <v>0.187771269647297</v>
-      </c>
-      <c r="T272" s="1">
-        <v>0.247140020799849</v>
-      </c>
-      <c r="U272" s="1">
-        <v>0.322239513333805</v>
-      </c>
-      <c r="V272" s="1">
-        <v>0.076667120407762</v>
-      </c>
-      <c r="W272" s="1">
-        <v>0.12938685774774</v>
-      </c>
-      <c r="X272" s="1">
-        <v>0.19605332529939</v>
-      </c>
-      <c r="Y272" s="1">
-        <v>0.0221306922702038</v>
-      </c>
-      <c r="Z272" s="1">
-        <v>0.848070520233608</v>
-      </c>
-      <c r="AA272" s="1">
-        <v>0.689563116936957</v>
-      </c>
-      <c r="AB272" s="1">
-        <v>0.689563116936957</v>
-      </c>
-      <c r="AC272" s="1">
-        <v>0.217614502753966</v>
-      </c>
-      <c r="AD272" s="1">
-        <v>5950000000</v>
-      </c>
-      <c r="AE272" s="1">
-        <v>0.000480097358024663</v>
-      </c>
-      <c r="AF272" s="1">
-        <v>0.264418646214576</v>
-      </c>
-      <c r="AG272" s="1">
-        <v>0.379466115271413</v>
-      </c>
-      <c r="AH272" s="1">
-        <v>0.0113004327599602</v>
-      </c>
-      <c r="AI272" s="1">
-        <v>0.00766762280610914</v>
-      </c>
-      <c r="AJ272" s="1">
-        <v>0.630734510486158</v>
-      </c>
-      <c r="AK272" s="1">
-        <v>0.00748593366709527</v>
-      </c>
-      <c r="AL272" s="1">
-        <v>0.133234573873084</v>
-      </c>
-      <c r="AM272" s="1">
-        <v>0.866765426126916</v>
-      </c>
-      <c r="AN272" s="1">
-        <v>0.0056111323985812</v>
-      </c>
-      <c r="AO272" s="1">
-        <v>0.372278749136066</v>
-      </c>
-      <c r="AP272" s="1">
-        <v>0.00536584771375646</v>
-      </c>
-      <c r="AQ272" s="1">
-        <v>0.129008093539824</v>
-      </c>
-      <c r="AR272" s="1">
-        <v>0.195271849785084</v>
-      </c>
-      <c r="AS272" s="1">
-        <v>0.404201103127851</v>
-      </c>
-      <c r="AT272" s="1">
-        <v>0.271364317841079</v>
-      </c>
-      <c r="AU272" s="1">
-        <v>0.00189098434662636</v>
-      </c>
-      <c r="AV272" s="1">
-        <v>0.00334305366390996</v>
-      </c>
-      <c r="AW272" s="1">
-        <v>0.000147126232970377</v>
-      </c>
-      <c r="AX272" s="1">
-        <v>0.00068992594643542</v>
-      </c>
-      <c r="AY272" s="1">
-        <v>0.0675806451612903</v>
-      </c>
-      <c r="AZ272" s="1">
-        <v>0.0460056107985841</v>
-      </c>
-      <c r="BA272" s="1">
-        <v>0.406594152099681</v>
-      </c>
-      <c r="BB272" s="1">
-        <v>0.00866418157379754</v>
-      </c>
-      <c r="BC272" s="1">
-        <v>0.830396704541358</v>
-      </c>
-      <c r="BD272" s="1">
-        <v>0.437090401014804</v>
-      </c>
-      <c r="BE272" s="1">
-        <v>0.624352800157224</v>
-      </c>
-      <c r="BF272" s="1">
-        <v>0.167261511204656</v>
-      </c>
-      <c r="BG272" s="1">
-        <v>0.00766007158813925</v>
-      </c>
-      <c r="BH272" s="1">
-        <v>0.00853217998734621</v>
-      </c>
-      <c r="BI272" s="1">
-        <v>0.103775075135204</v>
-      </c>
-      <c r="BJ272" s="1">
-        <v>0.346154182921109</v>
-      </c>
-      <c r="BK272" s="1">
-        <v>0.277327799475048</v>
-      </c>
-      <c r="BL272" s="1">
-        <v>0.0097512243837825</v>
-      </c>
-      <c r="BM272" s="1">
-        <v>0.73621420744056</v>
-      </c>
-      <c r="BN272" s="1">
-        <v>0.737915367985247</v>
-      </c>
-      <c r="BO272" s="1">
-        <v>0.331159049319082</v>
-      </c>
-      <c r="BP272" s="1">
-        <v>0.00588787831676989</v>
-      </c>
-      <c r="BQ272" s="1">
-        <v>0.940096833742388</v>
-      </c>
-      <c r="BR272" s="1">
-        <v>0.0024177847186176</v>
-      </c>
-      <c r="BS272" s="1">
-        <v>0.0381553096948529</v>
-      </c>
-      <c r="BT272" s="1">
-        <v>7930000000</v>
-      </c>
-      <c r="BU272" s="1">
-        <v>5700000000</v>
-      </c>
-      <c r="BV272" s="1">
-        <v>0.593944487034785</v>
-      </c>
-      <c r="BW272" s="1">
-        <v>6490000000</v>
-      </c>
-      <c r="BX272" s="1">
-        <v>0.671589406860127</v>
-      </c>
-      <c r="BY272" s="1">
-        <v>0.211805314402367</v>
-      </c>
-      <c r="BZ272" s="1">
-        <v>0.73621420744056</v>
-      </c>
-      <c r="CA272" s="1">
-        <v>0.331159049319082</v>
-      </c>
-      <c r="CB272" s="1">
-        <v>0.117227186967641</v>
-      </c>
-      <c r="CC272" s="1">
-        <v>0.699981827204626</v>
-      </c>
-      <c r="CD272" s="1">
-        <v>0.470153394397448</v>
-      </c>
-      <c r="CE272" s="1">
-        <v>0.588385150129502</v>
-      </c>
-      <c r="CF272" s="1">
-        <v>0.324240766488224</v>
-      </c>
-      <c r="CG272" s="1">
-        <v>0.0258809404094595</v>
-      </c>
-      <c r="CH272" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI272" s="1">
-        <v>0.837909605384349</v>
-      </c>
-      <c r="CJ272" s="1">
-        <v>0.00283618295378109</v>
-      </c>
-      <c r="CK272" s="1">
-        <v>0.623837613195091</v>
-      </c>
-      <c r="CL272" s="1">
-        <v>0.605370698732158</v>
-      </c>
-      <c r="CM272" s="1">
-        <v>0.843575741471771</v>
-      </c>
-      <c r="CN272" s="1">
-        <v>0.280208327855148</v>
-      </c>
-      <c r="CO272" s="1">
-        <v>0.0268303737515846</v>
-      </c>
-      <c r="CP272" s="1">
-        <v>0.565338699761327</v>
-      </c>
-      <c r="CQ272" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR272" s="1">
-        <v>0.0277461766526614</v>
-      </c>
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
+      <c r="X272" s="1"/>
+      <c r="Y272" s="1"/>
+      <c r="Z272" s="1"/>
+      <c r="AA272" s="1"/>
+      <c r="AB272" s="1"/>
+      <c r="AC272" s="1"/>
+      <c r="AD272" s="1"/>
+      <c r="AE272" s="1"/>
+      <c r="AF272" s="1"/>
+      <c r="AG272" s="1"/>
+      <c r="AH272" s="1"/>
+      <c r="AI272" s="1"/>
+      <c r="AJ272" s="1"/>
+      <c r="AK272" s="1"/>
+      <c r="AL272" s="1"/>
+      <c r="AM272" s="1"/>
+      <c r="AN272" s="1"/>
+      <c r="AO272" s="1"/>
+      <c r="AP272" s="1"/>
+      <c r="AQ272" s="1"/>
+      <c r="AR272" s="1"/>
+      <c r="AS272" s="1"/>
+      <c r="AT272" s="1"/>
+      <c r="AU272" s="1"/>
+      <c r="AV272" s="1"/>
+      <c r="AW272" s="1"/>
+      <c r="AX272" s="1"/>
+      <c r="AY272" s="1"/>
+      <c r="AZ272" s="1"/>
+      <c r="BA272" s="1"/>
+      <c r="BB272" s="1"/>
+      <c r="BC272" s="1"/>
+      <c r="BD272" s="1"/>
+      <c r="BE272" s="1"/>
+      <c r="BF272" s="1"/>
+      <c r="BG272" s="1"/>
+      <c r="BH272" s="1"/>
+      <c r="BI272" s="1"/>
+      <c r="BJ272" s="1"/>
+      <c r="BK272" s="1"/>
+      <c r="BL272" s="1"/>
+      <c r="BM272" s="1"/>
+      <c r="BN272" s="1"/>
+      <c r="BO272" s="1"/>
+      <c r="BP272" s="1"/>
+      <c r="BQ272" s="1"/>
+      <c r="BR272" s="1"/>
+      <c r="BS272" s="1"/>
+      <c r="BT272" s="1"/>
+      <c r="BU272" s="1"/>
+      <c r="BV272" s="1"/>
+      <c r="BW272" s="1"/>
+      <c r="BX272" s="1"/>
+      <c r="BY272" s="1"/>
+      <c r="BZ272" s="1"/>
+      <c r="CA272" s="1"/>
+      <c r="CB272" s="1"/>
+      <c r="CC272" s="1"/>
+      <c r="CD272" s="1"/>
+      <c r="CE272" s="1"/>
+      <c r="CF272" s="1"/>
+      <c r="CG272" s="1"/>
+      <c r="CH272" s="1"/>
+      <c r="CI272" s="1"/>
+      <c r="CJ272" s="1"/>
+      <c r="CK272" s="1"/>
+      <c r="CL272" s="1"/>
+      <c r="CM272" s="1"/>
+      <c r="CN272" s="1"/>
+      <c r="CO272" s="1"/>
+      <c r="CP272" s="1"/>
+      <c r="CQ272" s="1"/>
+      <c r="CR272" s="1"/>
     </row>
     <row r="273" spans="1:96">
-      <c r="A273" s="1">
-        <v>0</v>
-      </c>
-      <c r="B273" s="1">
-        <v>0.453127285136255</v>
-      </c>
-      <c r="C273" s="1">
-        <v>0.504034016572176</v>
-      </c>
-      <c r="D273" s="1">
-        <v>0.50388136409872</v>
-      </c>
-      <c r="E273" s="1">
-        <v>0.606682137246141</v>
-      </c>
-      <c r="F273" s="1">
-        <v>0.606682137246141</v>
-      </c>
-      <c r="G273" s="1">
-        <v>0.998947249224967</v>
-      </c>
-      <c r="H273" s="1">
-        <v>0.797286119761617</v>
-      </c>
-      <c r="I273" s="1">
-        <v>0.809216357786478</v>
-      </c>
-      <c r="J273" s="1">
-        <v>0.303389174644141</v>
-      </c>
-      <c r="K273" s="1">
-        <v>0.781477483030834</v>
-      </c>
-      <c r="L273" s="1">
-        <v>0.000231504260800073</v>
-      </c>
-      <c r="M273" s="1">
-        <v>5010000000</v>
-      </c>
-      <c r="N273" s="1">
-        <v>0.460609110658178</v>
-      </c>
-      <c r="O273" s="1">
-        <v>0.00033003300330033</v>
-      </c>
-      <c r="P273" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q273" s="1">
-        <v>0.168176646580422</v>
-      </c>
-      <c r="R273" s="1">
-        <v>0.168176646580422</v>
-      </c>
-      <c r="S273" s="1">
-        <v>0.168176646580422</v>
-      </c>
-      <c r="T273" s="1">
-        <v>0.208660300652359</v>
-      </c>
-      <c r="U273" s="1">
-        <v>0.317181863195869</v>
-      </c>
-      <c r="V273" s="1">
-        <v>0.0148675832236792</v>
-      </c>
-      <c r="W273" s="1">
-        <v>0.0942919957658171</v>
-      </c>
-      <c r="X273" s="1">
-        <v>0.164871582435791</v>
-      </c>
-      <c r="Y273" s="1">
-        <v>0.0222462126807244</v>
-      </c>
-      <c r="Z273" s="1">
-        <v>0.848088707291236</v>
-      </c>
-      <c r="AA273" s="1">
-        <v>0.689286697787193</v>
-      </c>
-      <c r="AB273" s="1">
-        <v>0.689286697787193</v>
-      </c>
-      <c r="AC273" s="1">
-        <v>0.217603694826046</v>
-      </c>
-      <c r="AD273" s="1">
-        <v>5830000000</v>
-      </c>
-      <c r="AE273" s="1">
-        <v>0.000424998082255732</v>
-      </c>
-      <c r="AF273" s="1">
-        <v>0.263877038798362</v>
-      </c>
-      <c r="AG273" s="1">
-        <v>0.375386535524012</v>
-      </c>
-      <c r="AH273" s="1">
-        <v>0.0159444120299157</v>
-      </c>
-      <c r="AI273" s="1">
-        <v>0.0120700647671141</v>
-      </c>
-      <c r="AJ273" s="1">
-        <v>0.630459514253229</v>
-      </c>
-      <c r="AK273" s="1">
-        <v>0.00240655121786629</v>
-      </c>
-      <c r="AL273" s="1">
-        <v>0.0614626477612843</v>
-      </c>
-      <c r="AM273" s="1">
-        <v>0.938537352238716</v>
-      </c>
-      <c r="AN273" s="1">
-        <v>0.00770111424263561</v>
-      </c>
-      <c r="AO273" s="1">
-        <v>0.370658244665979</v>
-      </c>
-      <c r="AP273" s="1">
-        <v>0.00536584771375646</v>
-      </c>
-      <c r="AQ273" s="1">
-        <v>0.0942644975328546</v>
-      </c>
-      <c r="AR273" s="1">
-        <v>0.163954452907021</v>
-      </c>
-      <c r="AS273" s="1">
-        <v>0.398913216768508</v>
-      </c>
-      <c r="AT273" s="1">
-        <v>0.109445277361319</v>
-      </c>
-      <c r="AU273" s="1">
-        <v>0.00084201556207075</v>
-      </c>
-      <c r="AV273" s="1">
-        <v>0.0075101294952971</v>
-      </c>
-      <c r="AW273" s="1">
-        <v>0.000119993862734282</v>
-      </c>
-      <c r="AX273" s="1">
-        <v>0.000232244808723327</v>
-      </c>
-      <c r="AY273" s="1">
-        <v>0.0238709677419355</v>
-      </c>
-      <c r="AZ273" s="1">
-        <v>0.0176490460173612</v>
-      </c>
-      <c r="BA273" s="1">
-        <v>0.391149001605572</v>
-      </c>
-      <c r="BB273" s="1">
-        <v>0.0029765924397598</v>
-      </c>
-      <c r="BC273" s="1">
-        <v>0.825587412641131</v>
-      </c>
-      <c r="BD273" s="1">
-        <v>0.352259200237188</v>
-      </c>
-      <c r="BE273" s="1">
-        <v>0.4383089583838</v>
-      </c>
-      <c r="BF273" s="1">
-        <v>0.107741212635176</v>
-      </c>
-      <c r="BG273" s="1">
-        <v>0.0124030909924072</v>
-      </c>
-      <c r="BH273" s="1">
-        <v>0.0109098506360618</v>
-      </c>
-      <c r="BI273" s="1">
-        <v>0.0520410127545403</v>
-      </c>
-      <c r="BJ273" s="1">
-        <v>0.338832621923244</v>
-      </c>
-      <c r="BK273" s="1">
-        <v>0.277159029854859</v>
-      </c>
-      <c r="BL273" s="1">
-        <v>0.00949300502068378</v>
-      </c>
-      <c r="BM273" s="1">
-        <v>0.775613650173638</v>
-      </c>
-      <c r="BN273" s="1">
-        <v>0.735841787789585</v>
-      </c>
-      <c r="BO273" s="1">
-        <v>0.327915307341899</v>
-      </c>
-      <c r="BP273" s="1">
-        <v>0.00133288561771265</v>
-      </c>
-      <c r="BQ273" s="1">
-        <v>0.9257903082675</v>
-      </c>
-      <c r="BR273" s="1">
-        <v>0.00216238334365857</v>
-      </c>
-      <c r="BS273" s="1">
-        <v>0.0425296492555594</v>
-      </c>
-      <c r="BT273" s="1">
-        <v>0.000148850990394097</v>
-      </c>
-      <c r="BU273" s="1">
-        <v>0.000123097760330508</v>
-      </c>
-      <c r="BV273" s="1">
-        <v>0.593983900333014</v>
-      </c>
-      <c r="BW273" s="1">
-        <v>0.00010292066524452</v>
-      </c>
-      <c r="BX273" s="1">
-        <v>0.671575239747528</v>
-      </c>
-      <c r="BY273" s="1">
-        <v>0.0770322578456358</v>
-      </c>
-      <c r="BZ273" s="1">
-        <v>0.775613650173638</v>
-      </c>
-      <c r="CA273" s="1">
-        <v>0.327915307341899</v>
-      </c>
-      <c r="CB273" s="1">
-        <v>0.1116332484047</v>
-      </c>
-      <c r="CC273" s="1">
-        <v>0.646914257485839</v>
-      </c>
-      <c r="CD273" s="1">
-        <v>0.460861913021701</v>
-      </c>
-      <c r="CE273" s="1">
-        <v>0.560780396646</v>
-      </c>
-      <c r="CF273" s="1">
-        <v>0.315036905702956</v>
-      </c>
-      <c r="CG273" s="1">
-        <v>0.0183975673231098</v>
-      </c>
-      <c r="CH273" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI273" s="1">
-        <v>0.779123776452847</v>
-      </c>
-      <c r="CJ273" s="1">
-        <v>0.000639873659043897</v>
-      </c>
-      <c r="CK273" s="1">
-        <v>0.623953024734121</v>
-      </c>
-      <c r="CL273" s="1">
-        <v>0.606683530714522</v>
-      </c>
-      <c r="CM273" s="1">
-        <v>0.839052904456213</v>
-      </c>
-      <c r="CN273" s="1">
-        <v>0.276524208315333</v>
-      </c>
-      <c r="CO273" s="1">
-        <v>0.0267445316407317</v>
-      </c>
-      <c r="CP273" s="1">
-        <v>0.564925816054672</v>
-      </c>
-      <c r="CQ273" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR273" s="1">
-        <v>0.0627587312404843</v>
-      </c>
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
+      <c r="W273" s="1"/>
+      <c r="X273" s="1"/>
+      <c r="Y273" s="1"/>
+      <c r="Z273" s="1"/>
+      <c r="AA273" s="1"/>
+      <c r="AB273" s="1"/>
+      <c r="AC273" s="1"/>
+      <c r="AD273" s="1"/>
+      <c r="AE273" s="1"/>
+      <c r="AF273" s="1"/>
+      <c r="AG273" s="1"/>
+      <c r="AH273" s="1"/>
+      <c r="AI273" s="1"/>
+      <c r="AJ273" s="1"/>
+      <c r="AK273" s="1"/>
+      <c r="AL273" s="1"/>
+      <c r="AM273" s="1"/>
+      <c r="AN273" s="1"/>
+      <c r="AO273" s="1"/>
+      <c r="AP273" s="1"/>
+      <c r="AQ273" s="1"/>
+      <c r="AR273" s="1"/>
+      <c r="AS273" s="1"/>
+      <c r="AT273" s="1"/>
+      <c r="AU273" s="1"/>
+      <c r="AV273" s="1"/>
+      <c r="AW273" s="1"/>
+      <c r="AX273" s="1"/>
+      <c r="AY273" s="1"/>
+      <c r="AZ273" s="1"/>
+      <c r="BA273" s="1"/>
+      <c r="BB273" s="1"/>
+      <c r="BC273" s="1"/>
+      <c r="BD273" s="1"/>
+      <c r="BE273" s="1"/>
+      <c r="BF273" s="1"/>
+      <c r="BG273" s="1"/>
+      <c r="BH273" s="1"/>
+      <c r="BI273" s="1"/>
+      <c r="BJ273" s="1"/>
+      <c r="BK273" s="1"/>
+      <c r="BL273" s="1"/>
+      <c r="BM273" s="1"/>
+      <c r="BN273" s="1"/>
+      <c r="BO273" s="1"/>
+      <c r="BP273" s="1"/>
+      <c r="BQ273" s="1"/>
+      <c r="BR273" s="1"/>
+      <c r="BS273" s="1"/>
+      <c r="BT273" s="1"/>
+      <c r="BU273" s="1"/>
+      <c r="BV273" s="1"/>
+      <c r="BW273" s="1"/>
+      <c r="BX273" s="1"/>
+      <c r="BY273" s="1"/>
+      <c r="BZ273" s="1"/>
+      <c r="CA273" s="1"/>
+      <c r="CB273" s="1"/>
+      <c r="CC273" s="1"/>
+      <c r="CD273" s="1"/>
+      <c r="CE273" s="1"/>
+      <c r="CF273" s="1"/>
+      <c r="CG273" s="1"/>
+      <c r="CH273" s="1"/>
+      <c r="CI273" s="1"/>
+      <c r="CJ273" s="1"/>
+      <c r="CK273" s="1"/>
+      <c r="CL273" s="1"/>
+      <c r="CM273" s="1"/>
+      <c r="CN273" s="1"/>
+      <c r="CO273" s="1"/>
+      <c r="CP273" s="1"/>
+      <c r="CQ273" s="1"/>
+      <c r="CR273" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
